--- a/Examples/DC_SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
+++ b/Examples/DC_SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\DC_SingleMachineInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB1A708-97BD-4AE8-9880-2E37AB19C5E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA56185B-6111-4C93-ACFB-746A67AEEA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>

--- a/Examples/DC_SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
+++ b/Examples/DC_SingleMachineInfiniteBus/GfdBuckInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\DC_SingleMachineInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA56185B-6111-4C93-ACFB-746A67AEEA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3693321-1F39-4636-81E6-382F26A9F6DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -806,18 +806,10 @@
       <c r="B5">
         <v>1010</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1015,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1080,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
